--- a/training/output/CNN/W/W1_W3.xlsx
+++ b/training/output/CNN/W/W1_W3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.6158333333333333</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="B2" t="n">
-        <v>2.89140474319458</v>
+        <v>3.165596127510071</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8258333333333333</v>
+        <v>0.2260416666666667</v>
       </c>
       <c r="B3" t="n">
-        <v>2.223461446762085</v>
+        <v>2.943771064281464</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8508333333333333</v>
+        <v>0.2316666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>2.02940592288971</v>
+        <v>2.920592904090881</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8583333333333333</v>
+        <v>0.2391666666666667</v>
       </c>
       <c r="B5" t="n">
-        <v>1.88373950958252</v>
+        <v>2.851968705654144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8658333333333332</v>
+        <v>0.2466666666666667</v>
       </c>
       <c r="B6" t="n">
-        <v>1.844420013427734</v>
+        <v>2.823326230049133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8858333333333333</v>
+        <v>0.2366666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>1.728909244537354</v>
+        <v>2.800597250461578</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8808333333333332</v>
+        <v>0.2391666666666667</v>
       </c>
       <c r="B8" t="n">
-        <v>1.724672422409058</v>
+        <v>2.761485695838928</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.244375</v>
       </c>
       <c r="B9" t="n">
-        <v>1.720691142082214</v>
+        <v>2.727989196777344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9083333333333333</v>
+        <v>0.2466666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>1.654438242912293</v>
+        <v>2.695465266704559</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8983333333333333</v>
+        <v>0.2591666666666667</v>
       </c>
       <c r="B11" t="n">
-        <v>1.607829728126526</v>
+        <v>2.691394090652466</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9108333333333333</v>
+        <v>0.2516666666666667</v>
       </c>
       <c r="B12" t="n">
-        <v>1.62239839553833</v>
+        <v>2.650906324386597</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8691666666666668</v>
+        <v>0.2516666666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>1.592549223899841</v>
+        <v>2.648884654045105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9058333333333333</v>
+        <v>0.2591666666666667</v>
       </c>
       <c r="B14" t="n">
-        <v>1.551789155006409</v>
+        <v>2.676806807518005</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.3254166666666667</v>
       </c>
       <c r="B15" t="n">
-        <v>1.529713335037231</v>
+        <v>2.617120862007141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8816666666666667</v>
+        <v>0.3229166666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>1.545473656654358</v>
+        <v>2.587888598442078</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8808333333333332</v>
+        <v>0.3329166666666667</v>
       </c>
       <c r="B17" t="n">
-        <v>1.564272799491882</v>
+        <v>2.556207835674286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9066666666666667</v>
+        <v>0.3079166666666667</v>
       </c>
       <c r="B18" t="n">
-        <v>1.530769152641296</v>
+        <v>2.548175096511841</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.3429166666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>1.501059927940369</v>
+        <v>2.529693186283112</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8891666666666667</v>
+        <v>0.3304166666666667</v>
       </c>
       <c r="B20" t="n">
-        <v>1.512665400505066</v>
+        <v>2.499406039714813</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.8966666666666667</v>
+        <v>0.3354166666666666</v>
       </c>
       <c r="B21" t="n">
-        <v>1.515492305755615</v>
+        <v>2.474307358264923</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9141666666666667</v>
+        <v>0.3279166666666667</v>
       </c>
       <c r="B22" t="n">
-        <v>1.56210696220398</v>
+        <v>2.479588806629181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.3279166666666667</v>
       </c>
       <c r="B23" t="n">
-        <v>1.484822430610657</v>
+        <v>2.481574714183807</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.3329166666666667</v>
       </c>
       <c r="B24" t="n">
-        <v>1.473349766731262</v>
+        <v>2.448852121829987</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9191666666666667</v>
+        <v>0.3329166666666667</v>
       </c>
       <c r="B25" t="n">
-        <v>1.503359150886536</v>
+        <v>2.441984891891479</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9141666666666667</v>
+        <v>0.3639583333333333</v>
       </c>
       <c r="B26" t="n">
-        <v>1.466717376708984</v>
+        <v>2.423890888690948</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9158333333333333</v>
+        <v>0.3354166666666666</v>
       </c>
       <c r="B27" t="n">
-        <v>1.459824213981628</v>
+        <v>2.435788750648499</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8891666666666667</v>
+        <v>0.3279166666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>1.507633748054504</v>
+        <v>2.400986969470978</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.3279166666666667</v>
       </c>
       <c r="B29" t="n">
-        <v>1.445775461196899</v>
+        <v>2.356865763664246</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9166666666666667</v>
+        <v>0.3383333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>1.457739553451538</v>
+        <v>2.358866095542908</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9125</v>
+        <v>0.3404166666666666</v>
       </c>
       <c r="B31" t="n">
-        <v>1.485507192611694</v>
+        <v>2.41198343038559</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9325</v>
+        <v>0.3154166666666667</v>
       </c>
       <c r="B32" t="n">
-        <v>1.446563415527344</v>
+        <v>2.480210840702057</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9358333333333333</v>
+        <v>0.3304166666666667</v>
       </c>
       <c r="B33" t="n">
-        <v>1.442821626663208</v>
+        <v>2.433152794837952</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.37375</v>
       </c>
       <c r="B34" t="n">
-        <v>1.425419878959656</v>
+        <v>2.383701384067535</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.915</v>
+        <v>0.34875</v>
       </c>
       <c r="B35" t="n">
-        <v>1.432371315956116</v>
+        <v>2.369607210159302</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9141666666666667</v>
+        <v>0.3404166666666666</v>
       </c>
       <c r="B36" t="n">
-        <v>1.420607757568359</v>
+        <v>2.335030138492584</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.37125</v>
       </c>
       <c r="B37" t="n">
-        <v>1.417580456733704</v>
+        <v>2.327246963977814</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9166666666666667</v>
+        <v>0.3966666666666667</v>
       </c>
       <c r="B38" t="n">
-        <v>1.418639016151428</v>
+        <v>2.359476447105408</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.3639583333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>1.420592770576477</v>
+        <v>2.349334239959717</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.93</v>
+        <v>0.37375</v>
       </c>
       <c r="B40" t="n">
-        <v>1.427007098197937</v>
+        <v>2.353381395339966</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.3929166666666667</v>
       </c>
       <c r="B41" t="n">
-        <v>1.435306096076965</v>
+        <v>2.356507122516632</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9116666666666667</v>
+        <v>0.38625</v>
       </c>
       <c r="B42" t="n">
-        <v>1.418980989456177</v>
+        <v>2.263522803783417</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9141666666666667</v>
+        <v>0.37375</v>
       </c>
       <c r="B43" t="n">
-        <v>1.412212891578674</v>
+        <v>2.270587086677551</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9275</v>
+        <v>0.3760416666666667</v>
       </c>
       <c r="B44" t="n">
-        <v>1.424965310096741</v>
+        <v>2.248844861984253</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9141666666666667</v>
+        <v>0.4066666666666667</v>
       </c>
       <c r="B45" t="n">
-        <v>1.415832071304321</v>
+        <v>2.224336564540863</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9183333333333333</v>
+        <v>0.3883333333333333</v>
       </c>
       <c r="B46" t="n">
-        <v>1.416398243904114</v>
+        <v>2.315094947814941</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9091666666666667</v>
+        <v>0.4339583333333333</v>
       </c>
       <c r="B47" t="n">
-        <v>1.409969191551208</v>
+        <v>2.230313003063202</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.4447916666666667</v>
       </c>
       <c r="B48" t="n">
-        <v>1.443172011375427</v>
+        <v>2.191928029060364</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9266666666666667</v>
+        <v>0.4947916666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>1.441710348129273</v>
+        <v>2.19288831949234</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9266666666666667</v>
+        <v>0.4677083333333334</v>
       </c>
       <c r="B50" t="n">
-        <v>1.413254556655884</v>
+        <v>2.152086973190308</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9141666666666667</v>
+        <v>0.5072916666666667</v>
       </c>
       <c r="B51" t="n">
-        <v>1.411091685295105</v>
+        <v>2.154987215995789</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9191666666666667</v>
+        <v>0.4677083333333334</v>
       </c>
       <c r="B52" t="n">
-        <v>1.419960246086121</v>
+        <v>2.171360671520233</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.8991666666666667</v>
+        <v>0.4797916666666667</v>
       </c>
       <c r="B53" t="n">
-        <v>1.435772061347961</v>
+        <v>2.170882821083069</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9008333333333333</v>
+        <v>0.525625</v>
       </c>
       <c r="B54" t="n">
-        <v>1.492040238380432</v>
+        <v>2.149570882320404</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9241666666666667</v>
+        <v>0.5175</v>
       </c>
       <c r="B55" t="n">
-        <v>1.419304337501526</v>
+        <v>2.114969193935394</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9341666666666667</v>
+        <v>0.4804166666666666</v>
       </c>
       <c r="B56" t="n">
-        <v>1.416484699249268</v>
+        <v>2.111755847930908</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9041666666666667</v>
+        <v>0.5179166666666667</v>
       </c>
       <c r="B57" t="n">
-        <v>1.435765872001648</v>
+        <v>2.05642506480217</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.93</v>
+        <v>0.50125</v>
       </c>
       <c r="B58" t="n">
-        <v>1.443156757354736</v>
+        <v>2.082049190998077</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.5443750000000001</v>
       </c>
       <c r="B59" t="n">
-        <v>1.418303961753845</v>
+        <v>2.084151953458786</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9283333333333332</v>
+        <v>0.5185416666666667</v>
       </c>
       <c r="B60" t="n">
-        <v>1.406519932746887</v>
+        <v>2.057855099439621</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9358333333333333</v>
+        <v>0.4922916666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>1.411021347045899</v>
+        <v>2.106606900691986</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9425</v>
+        <v>0.5395833333333333</v>
       </c>
       <c r="B62" t="n">
-        <v>1.419557375907898</v>
+        <v>2.061705827713013</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.5570833333333334</v>
       </c>
       <c r="B63" t="n">
-        <v>1.436236205101013</v>
+        <v>2.040509045124054</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9283333333333332</v>
+        <v>0.5745833333333333</v>
       </c>
       <c r="B64" t="n">
-        <v>1.409995932579041</v>
+        <v>2.003837406635284</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.5672916666666666</v>
       </c>
       <c r="B65" t="n">
-        <v>1.436541423797608</v>
+        <v>2.01627117395401</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.6147916666666666</v>
       </c>
       <c r="B66" t="n">
-        <v>1.408644394874573</v>
+        <v>1.996299713850021</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.945</v>
+        <v>0.5745833333333333</v>
       </c>
       <c r="B67" t="n">
-        <v>1.418411736488342</v>
+        <v>1.992388725280762</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9525</v>
+        <v>0.5616666666666666</v>
       </c>
       <c r="B68" t="n">
-        <v>1.407217855453491</v>
+        <v>2.011549651622772</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.945</v>
+        <v>0.605</v>
       </c>
       <c r="B69" t="n">
-        <v>1.405660905838013</v>
+        <v>1.978376299142838</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.6147916666666667</v>
       </c>
       <c r="B70" t="n">
-        <v>1.40309730052948</v>
+        <v>1.911066591739655</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9408333333333333</v>
+        <v>0.6322916666666667</v>
       </c>
       <c r="B71" t="n">
-        <v>1.400293326377869</v>
+        <v>1.904662072658539</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.5922916666666665</v>
       </c>
       <c r="B72" t="n">
-        <v>1.402594165802002</v>
+        <v>1.943850308656693</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9358333333333333</v>
+        <v>0.6195833333333334</v>
       </c>
       <c r="B73" t="n">
-        <v>1.409409785270691</v>
+        <v>1.911886662244797</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.6472916666666666</v>
       </c>
       <c r="B74" t="n">
-        <v>1.408532199859619</v>
+        <v>1.866228997707367</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.945</v>
+        <v>0.6547916666666667</v>
       </c>
       <c r="B75" t="n">
-        <v>1.407529864311218</v>
+        <v>1.857267051935196</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9316666666666668</v>
+        <v>0.6347916666666666</v>
       </c>
       <c r="B76" t="n">
-        <v>1.404019794464111</v>
+        <v>1.937479138374329</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9475</v>
+        <v>0.6322916666666667</v>
       </c>
       <c r="B77" t="n">
-        <v>1.404591851234436</v>
+        <v>1.830046266317368</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9408333333333333</v>
+        <v>0.6247916666666666</v>
       </c>
       <c r="B78" t="n">
-        <v>1.400166711807251</v>
+        <v>1.828602343797684</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.6225000000000001</v>
       </c>
       <c r="B79" t="n">
-        <v>1.402506017684936</v>
+        <v>1.896097928285599</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9383333333333332</v>
+        <v>0.6022916666666667</v>
       </c>
       <c r="B80" t="n">
-        <v>1.40024435043335</v>
+        <v>1.790546804666519</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.955</v>
+        <v>0.6497916666666667</v>
       </c>
       <c r="B81" t="n">
-        <v>1.404848809242249</v>
+        <v>1.760619014501572</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9483333333333333</v>
+        <v>0.6224999999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>1.404008612632752</v>
+        <v>1.798519462347031</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9408333333333333</v>
+        <v>0.6072916666666667</v>
       </c>
       <c r="B83" t="n">
-        <v>1.423422265052795</v>
+        <v>1.727188050746918</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.95</v>
+        <v>0.6372916666666666</v>
       </c>
       <c r="B84" t="n">
-        <v>1.404774856567383</v>
+        <v>1.7481749355793</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9425</v>
+        <v>0.645</v>
       </c>
       <c r="B85" t="n">
-        <v>1.402760586738586</v>
+        <v>1.736390501260757</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.6475</v>
       </c>
       <c r="B86" t="n">
-        <v>1.411314277648926</v>
+        <v>1.677354365587234</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9175</v>
+        <v>0.6604166666666667</v>
       </c>
       <c r="B87" t="n">
-        <v>1.44260048866272</v>
+        <v>1.685342609882355</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9475</v>
+        <v>0.6675</v>
       </c>
       <c r="B88" t="n">
-        <v>1.402509188652039</v>
+        <v>1.64351761341095</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9408333333333333</v>
+        <v>0.665</v>
       </c>
       <c r="B89" t="n">
-        <v>1.415089678764343</v>
+        <v>1.638760149478912</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.6575</v>
       </c>
       <c r="B90" t="n">
-        <v>1.414420390129089</v>
+        <v>1.696135431528091</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.6852083333333334</v>
       </c>
       <c r="B91" t="n">
-        <v>1.401573262214661</v>
+        <v>1.653409034013748</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9383333333333332</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="B92" t="n">
-        <v>1.399132061004639</v>
+        <v>1.638046950101852</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9433333333333332</v>
+        <v>0.6802083333333334</v>
       </c>
       <c r="B93" t="n">
-        <v>1.401584839820862</v>
+        <v>1.607859581708908</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9383333333333332</v>
+        <v>0.6877083333333334</v>
       </c>
       <c r="B94" t="n">
-        <v>1.40449188709259</v>
+        <v>1.602145373821259</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.6802083333333334</v>
       </c>
       <c r="B95" t="n">
-        <v>1.398115940093994</v>
+        <v>1.56570291519165</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9333333333333332</v>
+        <v>0.7227083333333334</v>
       </c>
       <c r="B96" t="n">
-        <v>1.399420938491821</v>
+        <v>1.575157403945923</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9258333333333333</v>
+        <v>0.6927083333333334</v>
       </c>
       <c r="B97" t="n">
-        <v>1.396827626228333</v>
+        <v>1.732046246528625</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9283333333333332</v>
+        <v>0.6977083333333334</v>
       </c>
       <c r="B98" t="n">
-        <v>1.397438292503357</v>
+        <v>1.567272454500198</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9358333333333333</v>
+        <v>0.7204166666666666</v>
       </c>
       <c r="B99" t="n">
-        <v>1.396435837745666</v>
+        <v>1.528293907642365</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9383333333333332</v>
+        <v>0.748125</v>
       </c>
       <c r="B100" t="n">
-        <v>1.394402389526367</v>
+        <v>1.563675940036774</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9308333333333333</v>
+        <v>0.7327083333333334</v>
       </c>
       <c r="B101" t="n">
-        <v>1.406538147926331</v>
+        <v>1.500070989131927</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.7454166666666666</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.475998789072037</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.6852083333333333</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.577316135168076</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.7445833333333334</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.508498549461365</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.48281130194664</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.7372916666666667</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.457661896944046</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.7775</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.407377034425735</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.7910416666666666</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.454702764749527</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.414137542247772</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.399785935878754</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.7777083333333333</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.381415605545044</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.7377083333333333</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.461229264736176</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.7885416666666666</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.407394498586655</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.798125</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.345128774642944</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.81875</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.363397479057312</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.7937500000000001</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.431126475334167</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.8329166666666666</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.334704965353012</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.8439583333333335</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.333697080612183</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.83375</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.340240329504013</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.7975</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.436673074960709</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.8816666666666666</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.280451953411102</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.81375</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.318283766508102</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.83875</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.288849294185638</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.8514583333333333</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.263131737709045</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.84875</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.312866061925888</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.8641666666666666</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.278446644544601</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.8689583333333334</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.273239403963089</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.8560416666666666</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.25956979393959</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.8864583333333333</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.348615050315857</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.8589583333333334</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.248368769884109</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.8866666666666666</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.187471091747284</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.8462499999999999</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.193996727466583</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.86375</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.153703808784485</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.8741666666666666</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.139452278614044</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.8689583333333334</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.132451474666595</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.8618749999999999</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.173811465501785</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.84875</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.225547462701797</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.8689583333333334</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.155462801456451</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.8664583333333333</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.132340162992477</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.8841666666666667</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.095901012420654</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.8739583333333334</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.292200446128845</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.894375</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.221386075019836</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.889375</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.108268886804581</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.8864583333333333</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.086801260709763</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9143749999999999</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.046938389539719</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9039583333333334</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.065292239189148</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9037499999999999</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.034254863858223</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9243750000000001</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.038740187883377</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.926875</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.001452967524529</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.926875</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.9874799996614456</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9243750000000001</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.9858924448490143</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9193750000000001</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.9815999865531921</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9314583333333334</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.9906726330518723</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.929375</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9676607251167297</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.9641614407300949</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.921875</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.9403124749660492</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9470833333333334</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.9412485510110855</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.934375</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.9838474243879318</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.934375</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.9975631684064865</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9769497215747833</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.944375</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9373476058244705</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9568749999999999</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.8988932073116302</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.944375</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.9222249835729599</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.8819184452295303</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9568749999999999</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.8752558976411819</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.9021754413843155</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9445833333333334</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.8596072494983673</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.8719182461500168</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9568749999999999</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.863267257809639</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.949375</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.8866481781005859</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9393750000000001</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.9418201297521591</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9545833333333333</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.9236569404602051</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.949375</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.8605800420045853</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.849913015961647</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.8341332823038101</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.8249513506889343</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9568749999999999</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.8465763628482819</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9568749999999999</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.84813392162323</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.961875</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.8247310817241669</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.8106467872858047</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.819777175784111</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.813947319984436</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9420833333333334</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.8416038006544113</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9568749999999999</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.809535339474678</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.814715713262558</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7943218201398849</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7954624742269516</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9595833333333333</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.8074260205030441</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9568749999999999</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7917699962854385</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9568749999999999</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7987300157546997</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7815568894147873</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9568749999999999</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7794469594955444</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.954375</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7838923186063766</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7946200966835022</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.954375</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7770555466413498</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7786839306354523</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7816618233919144</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9568749999999999</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7951246947050095</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9620833333333333</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7769366800785065</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9645833333333333</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7827491015195847</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7753710746765137</v>
       </c>
     </row>
   </sheetData>
